--- a/test/GPT4_test/output_refined.xlsx
+++ b/test/GPT4_test/output_refined.xlsx
@@ -70,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -82,16 +82,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,21 +465,21 @@
   <cols>
     <col width="5.576428571428571" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="66.43357142857143" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="49.005" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="28.71928571428571" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
-    <col width="16.57642857142857" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
-    <col width="16.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col width="16.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.71928571428571" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
+    <col width="49.005" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="28.71928571428571" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="16.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col width="16.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="16.57642857142857" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
+    <col width="13.71928571428571" bestFit="1" customWidth="1" style="6" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -601,11 +598,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Adventure Fiction, titled "The Quest for the Golden Relic" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>The Quest for the Golden Relic.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Quest for the Golden Relic.md</t>
         </is>
       </c>
       <c r="J2" s="2" t="n"/>
@@ -646,11 +647,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Adventure Fiction, titled "The Lost Underwater City" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>The Lost Underwater City.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Lost Underwater City.md</t>
         </is>
       </c>
       <c r="J3" s="2" t="n"/>
@@ -691,11 +696,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Romance Fiction, titled "Waiting for His Return: Love During World War II" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="n"/>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Waiting for His Return: Love During World War II.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Waiting for His Return: Love During World War II.md</t>
         </is>
       </c>
       <c r="J4" s="2" t="n"/>
@@ -736,11 +745,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Romance Fiction, titled "Love in Paris" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Love in Paris.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Love in Paris.md</t>
         </is>
       </c>
       <c r="J5" s="2" t="n"/>
@@ -781,11 +794,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Science Fiction, titled "The Last Colony on Mars" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>The Last Colony on Mars.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Last Colony on Mars.md</t>
         </is>
       </c>
       <c r="J6" s="2" t="n"/>
@@ -826,11 +843,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Science Fiction, titled "Chronicles of the Galactic Empire" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Chronicles of the Galactic Empire.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Chronicles of the Galactic Empire.md</t>
         </is>
       </c>
       <c r="J7" s="2" t="n"/>
@@ -851,7 +872,7 @@
           <t>Artificial Intelligence Crisis</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>人工智能危机</t>
         </is>
@@ -871,11 +892,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Science Fiction, titled "Artificial Intelligence Crisis" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H8" s="2" t="n"/>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Crisis.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Artificial Intelligence Crisis.md</t>
         </is>
       </c>
       <c r="J8" s="2" t="n"/>
@@ -916,11 +941,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Science Fiction, titled "The Dark Side of the Moon" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>The Dark Side of the Moon.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Dark Side of the Moon.md</t>
         </is>
       </c>
       <c r="J9" s="2" t="n"/>
@@ -961,11 +990,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Fantasy Fiction, titled "The Dragon's Prophecy" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H10" s="2" t="n"/>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>The Dragon's Prophecy.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Dragon's Prophecy.md</t>
         </is>
       </c>
       <c r="J10" s="2" t="n"/>
@@ -1006,11 +1039,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n"/>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Fantasy Fiction, titled "The Enchanted Realm" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H11" s="2" t="n"/>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>The Enchanted Realm.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Enchanted Realm.md</t>
         </is>
       </c>
       <c r="J11" s="2" t="n"/>
@@ -1051,11 +1088,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Horror Fiction, titled "The Shadows in the Basement" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H12" s="2" t="n"/>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>The Shadows in the Basement.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Shadows in the Basement.md</t>
         </is>
       </c>
       <c r="J12" s="2" t="n"/>
@@ -1096,11 +1137,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Horror Fiction, titled "Echoes of the Night" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>Echoes of the Night.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Echoes of the Night.md</t>
         </is>
       </c>
       <c r="J13" s="2" t="n"/>
@@ -1141,11 +1186,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G14" s="2" t="n"/>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Thriller Fiction, titled "Night of Terror at the Inn" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H14" s="2" t="n"/>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>Night of Terror at the Inn.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Night of Terror at the Inn.md</t>
         </is>
       </c>
       <c r="J14" s="2" t="n"/>
@@ -1186,11 +1235,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G15" s="2" t="n"/>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Thriller Fiction, titled "Crossing the Deserted Streets" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H15" s="2" t="n"/>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>Crossing the Deserted Streets.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Crossing the Deserted Streets.md</t>
         </is>
       </c>
       <c r="J15" s="2" t="n"/>
@@ -1231,11 +1284,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G16" s="2" t="n"/>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Mystery Fiction, titled "Murder by the Lake" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H16" s="2" t="n"/>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Murder by the Lake.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Murder by the Lake.md</t>
         </is>
       </c>
       <c r="J16" s="2" t="n"/>
@@ -1276,11 +1333,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G17" s="2" t="n"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Mystery Fiction, titled "The Secret of Ravenclaw Hall" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H17" s="2" t="n"/>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>The Secret of Ravenclaw Hall.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Secret of Ravenclaw Hall.md</t>
         </is>
       </c>
       <c r="J17" s="2" t="n"/>
@@ -1321,11 +1382,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G18" s="2" t="n"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Mystery Fiction, titled "The Museum Murder Mystery" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H18" s="2" t="n"/>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>The Museum Murder Mystery.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Museum Murder Mystery.md</t>
         </is>
       </c>
       <c r="J18" s="2" t="n"/>
@@ -1366,11 +1431,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G19" s="2" t="n"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Mystery Fiction, titled "The Tragedy Aboard the Train" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H19" s="2" t="n"/>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>The Tragedy Aboard the Train.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Tragedy Aboard the Train.md</t>
         </is>
       </c>
       <c r="J19" s="2" t="n"/>
@@ -1411,11 +1480,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G20" s="2" t="n"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Historical Fiction, titled "The Ambition of Oda Nobunaga" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>The Ambition of Oda Nobunaga.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Ambition of Oda Nobunaga.md</t>
         </is>
       </c>
       <c r="J20" s="2" t="n"/>
@@ -1456,11 +1529,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G21" s="2" t="n"/>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Historical Fiction, titled "The Last Emperor" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>The Last Emperor.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Last Emperor.md</t>
         </is>
       </c>
       <c r="J21" s="2" t="n"/>
@@ -1501,11 +1578,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G22" s="2" t="n"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Drama, titled "Legend of the Western Cowboy" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Legend of the Western Cowboy.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Legend of the Western Cowboy.md</t>
         </is>
       </c>
       <c r="J22" s="2" t="n"/>
@@ -1546,11 +1627,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G23" s="2" t="n"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Drama, titled "Battle of Two Cities" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Battle of Two Cities.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Battle of Two Cities.md</t>
         </is>
       </c>
       <c r="J23" s="2" t="n"/>
@@ -1591,11 +1676,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G24" s="2" t="n"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Political News, titled "2024 Election: Pennsylvania and Wisconsin Emerge as Pivotal Swing States" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2024 Election: Pennsylvania and Wisconsin Emerge as Pivotal Swing States.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/2024 Election: Pennsylvania and Wisconsin Emerge as Pivotal Swing States.md</t>
         </is>
       </c>
       <c r="J24" s="2" t="n"/>
@@ -1636,11 +1725,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G25" s="2" t="n"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Political News, titled "Pentagon Releases Indo-Pacific Strategy: Focuses on Countering China's Military Expansion" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H25" s="2" t="n"/>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Pentagon Releases Indo-Pacific Strategy: Focuses on Countering China's Military Expansion.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Pentagon Releases Indo-Pacific Strategy: Focuses on Countering China's Military Expansion.md</t>
         </is>
       </c>
       <c r="J25" s="2" t="n"/>
@@ -1681,11 +1774,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n"/>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Business and Economy News, titled "Global Markets Rally Amid Economic Recovery Hopes" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H26" s="2" t="n"/>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Global Markets Rally Amid Economic Recovery Hopes.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Global Markets Rally Amid Economic Recovery Hopes.md</t>
         </is>
       </c>
       <c r="J26" s="2" t="n"/>
@@ -1726,11 +1823,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G27" s="2" t="n"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Business and Economy News, titled "Housing Market Bubble Warning: Home Prices Soar as Inventory Hits Record Lows" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H27" s="2" t="n"/>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Housing Market Bubble Warning: Home Prices Soar as Inventory Hits Record Lows.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Housing Market Bubble Warning: Home Prices Soar as Inventory Hits Record Lows.md</t>
         </is>
       </c>
       <c r="J27" s="2" t="n"/>
@@ -1771,11 +1872,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G28" s="2" t="n"/>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Technology News, titled "Breakthrough in Quantum Computing: What It Means for the Future" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Breakthrough in Quantum Computing: What It Means for the Future.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Breakthrough in Quantum Computing: What It Means for the Future.md</t>
         </is>
       </c>
       <c r="J28" s="2" t="n"/>
@@ -1816,11 +1921,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G29" s="2" t="n"/>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Technology News, titled "The Rise of Artificial Intelligence: Transforming Our Daily Lives" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>The Rise of Artificial Intelligence: Transforming Our Daily Lives.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Rise of Artificial Intelligence: Transforming Our Daily Lives.md</t>
         </is>
       </c>
       <c r="J29" s="2" t="n"/>
@@ -1861,11 +1970,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G30" s="2" t="n"/>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Sports News, titled "World Cup Qualifiers: Latest Results and Highlights" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H30" s="2" t="n"/>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>World Cup Qualifiers: Latest Results and Highlights.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/World Cup Qualifiers: Latest Results and Highlights.md</t>
         </is>
       </c>
       <c r="J30" s="2" t="n"/>
@@ -1906,11 +2019,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G31" s="2" t="n"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Sports News, titled "Olympic Games Recap: Medal Tally and Memorabilia" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="n"/>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Olympic Games Recap: Medal Tally and Memorabilia.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Olympic Games Recap: Medal Tally and Memorabilia.md</t>
         </is>
       </c>
       <c r="J31" s="2" t="n"/>
@@ -1951,11 +2068,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G32" s="2" t="n"/>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Entertainment News, titled "Coldplay Announces Global Tour Kickoff in Tokyo, Japan for 2024" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="n"/>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Coldplay Announces Global Tour Kickoff in Tokyo, Japan for 2024.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Coldplay Announces Global Tour Kickoff in Tokyo, Japan for 2024.md</t>
         </is>
       </c>
       <c r="J32" s="2" t="n"/>
@@ -1996,11 +2117,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G33" s="2" t="n"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Entertainment News, titled "Dating Rumors? Taylor Swift Declares They Are Just Friends" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Dating Rumors? Taylor Swift Declares They Are Just Friends.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Dating Rumors? Taylor Swift Declares They Are Just Friends.md</t>
         </is>
       </c>
       <c r="J33" s="2" t="n"/>
@@ -2041,11 +2166,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Science and Health News, titled "Breakthrough in Cancer Research: New Treatment Shows Promising Results" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Breakthrough in Cancer Research: New Treatment Shows Promising Results.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Breakthrough in Cancer Research: New Treatment Shows Promising Results.md</t>
         </is>
       </c>
       <c r="J34" s="2" t="n"/>
@@ -2086,11 +2215,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G35" s="2" t="n"/>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Science and Health News, titled "The Rising Concern of Mental Health Issues Among Teenagers" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H35" s="2" t="n"/>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>The Rising Concern of Mental Health Issues Among Teenagers.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Rising Concern of Mental Health Issues Among Teenagers.md</t>
         </is>
       </c>
       <c r="J35" s="2" t="n"/>
@@ -2131,11 +2264,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G36" s="2" t="n"/>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment News, titled "The Impact of Plastic Waste on Marine Life" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H36" s="2" t="n"/>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>The Impact of Plastic Waste on Marine Life.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of Plastic Waste on Marine Life.md</t>
         </is>
       </c>
       <c r="J36" s="2" t="n"/>
@@ -2176,11 +2313,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n"/>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment News, titled "Climate Change: The Global Call to Action" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H37" s="2" t="n"/>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Climate Change: The Global Call to Action.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Climate Change: The Global Call to Action.md</t>
         </is>
       </c>
       <c r="J37" s="2" t="n"/>
@@ -2221,11 +2362,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G38" s="2" t="n"/>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Political Opinion, titled "Modi Wins Third Term: Domestic Challenges and Global Ambitions of Indian Prime Minister" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H38" s="2" t="n"/>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Modi Wins Third Term: Domestic Challenges and Global Ambitions of Indian Prime Minister.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Modi Wins Third Term: Domestic Challenges and Global Ambitions of Indian Prime Minister.md</t>
         </is>
       </c>
       <c r="J38" s="2" t="n"/>
@@ -2266,11 +2411,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G39" s="2" t="n"/>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Political Opinion, titled "American Immigration: Analyzing the Similarities and Differences Between Biden and Trump's Border Policies" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H39" s="2" t="n"/>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>American Immigration: Analyzing the Similarities and Differences Between Biden and Trump's Border Policies.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/American Immigration: Analyzing the Similarities and Differences Between Biden and Trump's Border Policies.md</t>
         </is>
       </c>
       <c r="J39" s="2" t="n"/>
@@ -2311,11 +2460,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G40" s="2" t="n"/>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Social Commentary, titled "The Aging Population: Rethinking Retirement and Elder Care in the 21st Century" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H40" s="2" t="n"/>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>The Aging Population: Rethinking Retirement and Elder Care in the 21st Century.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Aging Population: Rethinking Retirement and Elder Care in the 21st Century.md</t>
         </is>
       </c>
       <c r="J40" s="2" t="n"/>
@@ -2356,11 +2509,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G41" s="2" t="n"/>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Social Commentary, titled "The Impact of Social Media on Society" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H41" s="2" t="n"/>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>The Impact of Social Media on Society.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of Social Media on Society.md</t>
         </is>
       </c>
       <c r="J41" s="2" t="n"/>
@@ -2401,11 +2558,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G42" s="2" t="n"/>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Economic Opinion, titled "Japanese businesses are trapped between America and China" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H42" s="2" t="n"/>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Japanese businesses are trapped between America and China.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Japanese businesses are trapped between America and China.md</t>
         </is>
       </c>
       <c r="J42" s="2" t="n"/>
@@ -2446,11 +2607,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G43" s="2" t="n"/>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Economic Opinion, titled "Tourism Industry Recovery: Challenges and Opportunities After the COVID-19 Pandemic" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H43" s="2" t="n"/>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Tourism Industry Recovery: Challenges and Opportunities After the COVID-19 Pandemic.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Tourism Industry Recovery: Challenges and Opportunities After the COVID-19 Pandemic.md</t>
         </is>
       </c>
       <c r="J43" s="2" t="n"/>
@@ -2491,11 +2656,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G44" s="2" t="n"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Satire and Humor Opinion, titled "The Absurdity of Modern Office Life" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H44" s="2" t="n"/>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>The Absurdity of Modern Office Life.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Absurdity of Modern Office Life.md</t>
         </is>
       </c>
       <c r="J44" s="2" t="n"/>
@@ -2536,11 +2705,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G45" s="2" t="n"/>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Satire and Humor Opinion, titled "Breaking: Nation Shocked as Study Reveals Money Can't Buy Happiness, But It Can Rent a Jet Ski" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H45" s="2" t="n"/>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Breaking: Nation Shocked as Study Reveals Money Can't Buy Happiness, But It Can Rent a Jet Ski.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Breaking: Nation Shocked as Study Reveals Money Can't Buy Happiness, But It Can Rent a Jet Ski.md</t>
         </is>
       </c>
       <c r="J45" s="2" t="n"/>
@@ -2581,11 +2754,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G46" s="2" t="n"/>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Movie review or Book review, titled "A Deep Dive into 'Inception': A Movie Review" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H46" s="2" t="n"/>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>A Deep Dive into 'Inception': A Movie Review.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/A Deep Dive into 'Inception': A Movie Review.md</t>
         </is>
       </c>
       <c r="J46" s="2" t="n"/>
@@ -2626,11 +2803,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G47" s="2" t="n"/>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Movie review or Book review, titled "Exploring the Magic of 'Harry Potter and the Sorcerer's Stone': A Book Review" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="n"/>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Exploring the Magic of 'Harry Potter and the Sorcerer's Stone': A Book Review.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Exploring the Magic of 'Harry Potter and the Sorcerer's Stone': A Book Review.md</t>
         </is>
       </c>
       <c r="J47" s="2" t="n"/>
@@ -2671,11 +2852,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G48" s="2" t="n"/>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Physics Paper, titled "Theoretical Research and Stability Analysis of K-essence Dark Energy Model in Cosmological Evolution." Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="n"/>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>Theoretical Research and Stability Analysis of K-essence Dark Energy Model in Cosmological Evolution..md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Theoretical Research and Stability Analysis of K-essence Dark Energy Model in Cosmological Evolution..md</t>
         </is>
       </c>
       <c r="J48" s="2" t="n"/>
@@ -2716,11 +2901,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G49" s="2" t="n"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Physics Paper, titled "Research on the Influence and Physical Mechanism of Magnetic Field Disturbances on the Behavior of High-Energy Particles in EAST Device." Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H49" s="2" t="n"/>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Research on the Influence and Physical Mechanism of Magnetic Field Disturbances on the Behavior of High-Energy Particles in EAST Device..md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Research on the Influence and Physical Mechanism of Magnetic Field Disturbances on the Behavior of High-Energy Particles in EAST Device..md</t>
         </is>
       </c>
       <c r="J49" s="2" t="n"/>
@@ -2761,11 +2950,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G50" s="2" t="n"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Chemistry Paper, titled "Research on the Application and Performance of Nanotechnology-Modified Polymer Membranes in Oil-Water Separation" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H50" s="2" t="n"/>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Research on the Application and Performance of Nanotechnology-Modified Polymer Membranes in Oil-Water Separation.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Research on the Application and Performance of Nanotechnology-Modified Polymer Membranes in Oil-Water Separation.md</t>
         </is>
       </c>
       <c r="J50" s="2" t="n"/>
@@ -2806,11 +2999,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G51" s="2" t="n"/>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Chemistry Paper, titled "Operando Spectroscopic and Electrokinetic Analysis of Formic Acid Oxidation on Copper Surfaces" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H51" s="2" t="n"/>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Operando Spectroscopic and Electrokinetic Analysis of Formic Acid Oxidation on Copper Surfaces.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Operando Spectroscopic and Electrokinetic Analysis of Formic Acid Oxidation on Copper Surfaces.md</t>
         </is>
       </c>
       <c r="J51" s="2" t="n"/>
@@ -2851,11 +3048,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G52" s="2" t="n"/>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Biology Paper, titled "The Protective Effect of Interleukin-4 on Retinal Ganglion Cells and Its Role in Promoting Axon Regeneration" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H52" s="2" t="n"/>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>The Protective Effect of Interleukin-4 on Retinal Ganglion Cells and Its Role in Promoting Axon Regeneration.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Protective Effect of Interleukin-4 on Retinal Ganglion Cells and Its Role in Promoting Axon Regeneration.md</t>
         </is>
       </c>
       <c r="J52" s="2" t="n"/>
@@ -2896,11 +3097,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G53" s="2" t="n"/>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Biology Paper, titled "The Impact of the Gut Microbiota in Aged Rats on Spontaneous Seizure-like Discharges and Seizure Threshold: Mechanisms Involving Macrophages and Microglia" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H53" s="2" t="n"/>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>The Impact of the Gut Microbiota in Aged Rats on Spontaneous Seizure-like Discharges and Seizure Threshold: Mechanisms Involving Macrophages and Microglia.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of the Gut Microbiota in Aged Rats on Spontaneous Seizure-like Discharges and Seizure Threshold: Mechanisms Involving Macrophages and Microglia.md</t>
         </is>
       </c>
       <c r="J53" s="2" t="n"/>
@@ -2941,11 +3146,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G54" s="2" t="n"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment Paper, titled "Evaluating the Impact of Deforestation on Biodiversity" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="n"/>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>Evaluating the Impact of Deforestation on Biodiversity.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Evaluating the Impact of Deforestation on Biodiversity.md</t>
         </is>
       </c>
       <c r="J54" s="2" t="n"/>
@@ -2986,11 +3195,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G55" s="2" t="n"/>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment Paper, titled "The Impact of Salinity on Membrane Surface Properties and Fouling Behavior: Real-Time Analysis of Dynamic Interfaces" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="n"/>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>The Impact of Salinity on Membrane Surface Properties and Fouling Behavior: Real-Time Analysis of Dynamic Interfaces.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of Salinity on Membrane Surface Properties and Fouling Behavior: Real-Time Analysis of Dynamic Interfaces.md</t>
         </is>
       </c>
       <c r="J55" s="2" t="n"/>
@@ -3031,11 +3244,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G56" s="2" t="n"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Computer Science Paper, titled "NG-Sort: An Efficient Algorithm for Large-Scale Data Sorting" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="n"/>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>NG-Sort: An Efficient Algorithm for Large-Scale Data Sorting.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/NG-Sort: An Efficient Algorithm for Large-Scale Data Sorting.md</t>
         </is>
       </c>
       <c r="J56" s="2" t="n"/>
@@ -3076,11 +3293,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G57" s="2" t="n"/>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Computer Science Paper, titled "Research on Reliability Modeling and Optimization of Large-Scale Cloud Computing Systems" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H57" s="2" t="n"/>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Research on Reliability Modeling and Optimization of Large-Scale Cloud Computing Systems.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Research on Reliability Modeling and Optimization of Large-Scale Cloud Computing Systems.md</t>
         </is>
       </c>
       <c r="J57" s="2" t="n"/>
@@ -3121,11 +3342,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G58" s="2" t="n"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Artificial Intelligence Paper, titled "KOLO: a improved neural nextwork architecture for image recognition" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H58" s="2" t="n"/>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>KOLO: a improved neural nextwork architecture for image recognition.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/KOLO: a improved neural nextwork architecture for image recognition.md</t>
         </is>
       </c>
       <c r="J58" s="2" t="n"/>
@@ -3166,11 +3391,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G59" s="2" t="n"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Artificial Intelligence Paper, titled "Research on long text generation algorithm based on improved RNN architecture" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H59" s="2" t="n"/>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>Research on long text generation algorithm based on improved RNN architecture.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Research on long text generation algorithm based on improved RNN architecture.md</t>
         </is>
       </c>
       <c r="J59" s="2" t="n"/>
@@ -3211,11 +3440,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G60" s="2" t="n"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Philosophy Paper, titled "The Ethics of Artificial Intelligence: A Kantian Perspective" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="n"/>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>The Ethics of Artificial Intelligence: A Kantian Perspective.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Ethics of Artificial Intelligence: A Kantian Perspective.md</t>
         </is>
       </c>
       <c r="J60" s="2" t="n"/>
@@ -3256,11 +3489,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G61" s="2" t="n"/>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Philosophy Paper, titled "Nihilism and Existentialism: A Comparative Study" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H61" s="2" t="n"/>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>Nihilism and Existentialism: A Comparative Study.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Nihilism and Existentialism: A Comparative Study.md</t>
         </is>
       </c>
       <c r="J61" s="2" t="n"/>
@@ -3301,11 +3538,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G62" s="2" t="n"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Psychology Paper, titled "The Cognitive Impact of Social Media Usage: A Comprehensive Study" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H62" s="2" t="n"/>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>The Cognitive Impact of Social Media Usage: A Comprehensive Study.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Cognitive Impact of Social Media Usage: A Comprehensive Study.md</t>
         </is>
       </c>
       <c r="J62" s="2" t="n"/>
@@ -3346,11 +3587,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G63" s="2" t="n"/>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Psychology Paper, titled "Behavioral Analysis of Anxiety Disorders: Current Trends and Future Directions" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="n"/>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>Behavioral Analysis of Anxiety Disorders: Current Trends and Future Directions.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Behavioral Analysis of Anxiety Disorders: Current Trends and Future Directions.md</t>
         </is>
       </c>
       <c r="J63" s="2" t="n"/>
@@ -3391,11 +3636,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G64" s="2" t="n"/>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one History Paper, titled "The Rise and Fall of the Roman Empire" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H64" s="2" t="n"/>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>The Rise and Fall of the Roman Empire.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Rise and Fall of the Roman Empire.md</t>
         </is>
       </c>
       <c r="J64" s="2" t="n"/>
@@ -3436,11 +3685,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G65" s="2" t="n"/>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one History Paper, titled "The Impact of the Industrial Revolution on European Society" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H65" s="2" t="n"/>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>The Impact of the Industrial Revolution on European Society.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of the Industrial Revolution on European Society.md</t>
         </is>
       </c>
       <c r="J65" s="2" t="n"/>
@@ -3481,11 +3734,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G66" s="2" t="n"/>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Sociology Paper, titled "The Evolution of Social Norms: A Comparative Analysis" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H66" s="2" t="n"/>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>The Evolution of Social Norms: A Comparative Analysis.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Evolution of Social Norms: A Comparative Analysis.md</t>
         </is>
       </c>
       <c r="J66" s="2" t="n"/>
@@ -3526,11 +3783,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G67" s="2" t="n"/>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Sociology Paper, titled "Impact of Social Media on Interpersonal Relationships" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H67" s="2" t="n"/>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>Impact of Social Media on Interpersonal Relationships.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Impact of Social Media on Interpersonal Relationships.md</t>
         </is>
       </c>
       <c r="J67" s="2" t="n"/>
@@ -3571,11 +3832,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G68" s="2" t="n"/>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a historical figure's encyclopedia articles, titled "Alexander the Great" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="n"/>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>Alexander the Great.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Alexander the Great.md</t>
         </is>
       </c>
       <c r="J68" s="2" t="n"/>
@@ -3616,11 +3881,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G69" s="2" t="n"/>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a historical figure's encyclopedia articles, titled "Napoleon Bonaparte" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H69" s="2" t="n"/>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>Napoleon Bonaparte.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Napoleon Bonaparte.md</t>
         </is>
       </c>
       <c r="J69" s="2" t="n"/>
@@ -3661,11 +3930,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G70" s="2" t="n"/>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a historical event's encyclopedia articles, titled "Battle of Gettysburg" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="n"/>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>Battle of Gettysburg.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Battle of Gettysburg.md</t>
         </is>
       </c>
       <c r="J70" s="2" t="n"/>
@@ -3706,11 +3979,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G71" s="2" t="n"/>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a historical event's encyclopedia articles, titled "Berlin Wall" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H71" s="2" t="n"/>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>Berlin Wall.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Berlin Wall.md</t>
         </is>
       </c>
       <c r="J71" s="2" t="n"/>
@@ -3751,11 +4028,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G72" s="2" t="n"/>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a terminology's encyclopedia articles, titled "Quantum Mechanics" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H72" s="2" t="n"/>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>Quantum Mechanics.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Quantum Mechanics.md</t>
         </is>
       </c>
       <c r="J72" s="2" t="n"/>
@@ -3796,11 +4077,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G73" s="2" t="n"/>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a terminology's encyclopedia articles, titled "Genetic Engineering" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H73" s="2" t="n"/>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>Genetic Engineering.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Genetic Engineering.md</t>
         </is>
       </c>
       <c r="J73" s="2" t="n"/>
@@ -3841,11 +4126,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G74" s="2" t="n"/>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a computer game's encyclopedia articles, titled "League_of_Legends" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H74" s="2" t="n"/>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>League_of_Legends.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/League_of_Legends.md</t>
         </is>
       </c>
       <c r="J74" s="2" t="n"/>
@@ -3886,11 +4175,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G75" s="2" t="n"/>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a computer game's encyclopedia articles, titled "Minecraft" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H75" s="2" t="n"/>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>Minecraft.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Minecraft.md</t>
         </is>
       </c>
       <c r="J75" s="2" t="n"/>
@@ -3931,11 +4224,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G76" s="2" t="n"/>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a company's encyclopedia articles, titled "Microsoft Corporation" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H76" s="2" t="n"/>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>Microsoft Corporation.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Microsoft Corporation.md</t>
         </is>
       </c>
       <c r="J76" s="2" t="n"/>
@@ -3976,11 +4273,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G77" s="2" t="n"/>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a company's encyclopedia articles, titled "Apple Inc." Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H77" s="2" t="n"/>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>Apple Inc..md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Apple Inc..md</t>
         </is>
       </c>
       <c r="J77" s="2" t="n"/>
@@ -4021,11 +4322,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G78" s="2" t="n"/>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a country's encyclopedia articles, titled "Japan" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H78" s="2" t="n"/>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>Japan.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Japan.md</t>
         </is>
       </c>
       <c r="J78" s="2" t="n"/>
@@ -4066,11 +4371,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G79" s="2" t="n"/>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a country's encyclopedia articles, titled "United States of America" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H79" s="2" t="n"/>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>United States of America.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/United States of America.md</t>
         </is>
       </c>
       <c r="J79" s="2" t="n"/>
@@ -4111,11 +4420,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G80" s="2" t="n"/>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one IT Report, titled "Development Technical Report on an Automatic License Plate Recognition System Based on Python and YOLOv8" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H80" s="2" t="n"/>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>Development Technical Report on an Automatic License Plate Recognition System Based on Python and YOLOv8.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Development Technical Report on an Automatic License Plate Recognition System Based on Python and YOLOv8.md</t>
         </is>
       </c>
       <c r="J80" s="2" t="n"/>
@@ -4156,11 +4469,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G81" s="2" t="n"/>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one IT Report, titled "Technical Report on the Development of an E-commerce System Based on Java Spring and React" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H81" s="2" t="n"/>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>Technical Report on the Development of an E-commerce System Based on Java Spring and React.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Technical Report on the Development of an E-commerce System Based on Java Spring and React.md</t>
         </is>
       </c>
       <c r="J81" s="2" t="n"/>
@@ -4172,7 +4489,7 @@
       <c r="P81" s="2" t="n"/>
       <c r="Q81" s="2" t="n"/>
     </row>
-    <row r="82" ht="18.75" customHeight="1">
+    <row r="82" ht="21" customHeight="1">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -4201,11 +4518,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G82" s="2" t="n"/>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Medicine Report, titled "Comprehensive Clinical Study Report on Novel Cardiovascular Therapies" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H82" s="2" t="n"/>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>Comprehensive Clinical Study Report on Novel Cardiovascular Therapies.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Comprehensive Clinical Study Report on Novel Cardiovascular Therapies.md</t>
         </is>
       </c>
       <c r="J82" s="2" t="n"/>
@@ -4217,7 +4538,7 @@
       <c r="P82" s="2" t="n"/>
       <c r="Q82" s="2" t="n"/>
     </row>
-    <row r="83" ht="18.75" customHeight="1">
+    <row r="83" ht="21" customHeight="1">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -4246,11 +4567,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G83" s="2" t="n"/>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Medicine Report, titled "In-depth Analysis of COVID-19 Vaccine Efficacy: A Clinical Study Report" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="n"/>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>In-depth Analysis of COVID-19 Vaccine Efficacy: A Clinical Study Report.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/In-depth Analysis of COVID-19 Vaccine Efficacy: A Clinical Study Report.md</t>
         </is>
       </c>
       <c r="J83" s="2" t="n"/>
@@ -4262,7 +4587,7 @@
       <c r="P83" s="2" t="n"/>
       <c r="Q83" s="2" t="n"/>
     </row>
-    <row r="84" ht="18.75" customHeight="1">
+    <row r="84" ht="19.5" customHeight="1">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -4291,11 +4616,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G84" s="2" t="n"/>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Finance Report, titled "Annual Financial Risk Assessment Report of Banabi Company" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="n"/>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>Annual Financial Risk Assessment Report of Banabi Company.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Annual Financial Risk Assessment Report of Banabi Company.md</t>
         </is>
       </c>
       <c r="J84" s="2" t="n"/>
@@ -4307,14 +4636,13 @@
       <c r="P84" s="2" t="n"/>
       <c r="Q84" s="2" t="n"/>
     </row>
-    <row r="85" ht="18.75" customHeight="1">
+    <row r="85" ht="31.5" customHeight="1">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Canon Company's Financial Analysis Report for the Fall of 2023</t>
+          <t>Canon Company's Financial Analysis Report for the Fall of 2023</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -4337,12 +4665,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G85" s="2" t="n"/>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Finance Report, titled "Canon Company's Financial Analysis Report for the Fall of 2023" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H85" s="2" t="n"/>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Canon Company's Financial Analysis Report for the Fall of 2023.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Canon Company's Financial Analysis Report for the Fall of 2023.md</t>
         </is>
       </c>
       <c r="J85" s="2" t="n"/>
@@ -4354,7 +4685,7 @@
       <c r="P85" s="2" t="n"/>
       <c r="Q85" s="2" t="n"/>
     </row>
-    <row r="86" ht="18.75" customHeight="1">
+    <row r="86" ht="21" customHeight="1">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -4383,11 +4714,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G86" s="2" t="n"/>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Education Report, titled "Course Evaluation Report on Modern Education Practices" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H86" s="2" t="n"/>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>Course Evaluation Report on Modern Education Practices.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Course Evaluation Report on Modern Education Practices.md</t>
         </is>
       </c>
       <c r="J86" s="2" t="n"/>
@@ -4399,7 +4734,7 @@
       <c r="P86" s="2" t="n"/>
       <c r="Q86" s="2" t="n"/>
     </row>
-    <row r="87" ht="18.75" customHeight="1">
+    <row r="87" ht="21" customHeight="1">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -4428,11 +4763,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G87" s="2" t="n"/>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Education Report, titled "Project-Based Learning: An In-depth Course Evaluation Report" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H87" s="2" t="n"/>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>Project-Based Learning: An In-depth Course Evaluation Report.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Project-Based Learning: An In-depth Course Evaluation Report.md</t>
         </is>
       </c>
       <c r="J87" s="2" t="n"/>
@@ -4444,7 +4783,7 @@
       <c r="P87" s="2" t="n"/>
       <c r="Q87" s="2" t="n"/>
     </row>
-    <row r="88" ht="18.75" customHeight="1">
+    <row r="88" ht="21" customHeight="1">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -4473,11 +4812,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G88" s="2" t="n"/>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Law Report, titled "Case Assessment Report on Corporate Fraud Investigations" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H88" s="2" t="n"/>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>Case Assessment Report on Corporate Fraud Investigations.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Case Assessment Report on Corporate Fraud Investigations.md</t>
         </is>
       </c>
       <c r="J88" s="2" t="n"/>
@@ -4489,7 +4832,7 @@
       <c r="P88" s="2" t="n"/>
       <c r="Q88" s="2" t="n"/>
     </row>
-    <row r="89" ht="18.75" customHeight="1">
+    <row r="89" ht="21" customHeight="1">
       <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
@@ -4518,11 +4861,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G89" s="2" t="n"/>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Law Report, titled "Legal Analysis of Intellectual Property Disputes: A Comprehensive Study" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H89" s="2" t="n"/>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>Legal Analysis of Intellectual Property Disputes: A Comprehensive Study.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Legal Analysis of Intellectual Property Disputes: A Comprehensive Study.md</t>
         </is>
       </c>
       <c r="J89" s="2" t="n"/>
@@ -4534,7 +4881,7 @@
       <c r="P89" s="2" t="n"/>
       <c r="Q89" s="2" t="n"/>
     </row>
-    <row r="90" ht="18.75" customHeight="1">
+    <row r="90" ht="19.5" customHeight="1">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -4563,11 +4910,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G90" s="2" t="n"/>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Management Report, titled "Chicago Bridge Construction Project Management Report" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H90" s="2" t="n"/>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>Chicago Bridge Construction Project Management Report.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Chicago Bridge Construction Project Management Report.md</t>
         </is>
       </c>
       <c r="J90" s="2" t="n"/>
@@ -4579,7 +4930,7 @@
       <c r="P90" s="2" t="n"/>
       <c r="Q90" s="2" t="n"/>
     </row>
-    <row r="91" ht="18.75" customHeight="1">
+    <row r="91" ht="19.5" customHeight="1">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
@@ -4608,11 +4959,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G91" s="2" t="n"/>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Management Report, titled "Narto Company's Annual Management Report: Strategic Growth and Development" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H91" s="2" t="n"/>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>Narto Company's Annual Management Report: Strategic Growth and Development.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Narto Company's Annual Management Report: Strategic Growth and Development.md</t>
         </is>
       </c>
       <c r="J91" s="2" t="n"/>
@@ -4624,7 +4979,7 @@
       <c r="P91" s="2" t="n"/>
       <c r="Q91" s="2" t="n"/>
     </row>
-    <row r="92" ht="18.75" customHeight="1">
+    <row r="92" ht="19.5" customHeight="1">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
@@ -4653,11 +5008,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G92" s="2" t="n"/>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Manufacturing Report, titled "Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H92" s="2" t="n"/>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai.md</t>
         </is>
       </c>
       <c r="J92" s="2" t="n"/>
@@ -4669,7 +5028,7 @@
       <c r="P92" s="2" t="n"/>
       <c r="Q92" s="2" t="n"/>
     </row>
-    <row r="93" ht="18.75" customHeight="1">
+    <row r="93" ht="19.5" customHeight="1">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
@@ -4698,11 +5057,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G93" s="2" t="n"/>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Manufacturing Report, titled "A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H93" s="2" t="n"/>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example.md</t>
         </is>
       </c>
       <c r="J93" s="2" t="n"/>
@@ -4714,7 +5077,7 @@
       <c r="P93" s="2" t="n"/>
       <c r="Q93" s="2" t="n"/>
     </row>
-    <row r="94" ht="18.75" customHeight="1">
+    <row r="94" ht="19.5" customHeight="1">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
@@ -4743,11 +5106,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G94" s="2" t="n"/>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment Report, titled "Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile Rive" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H94" s="2" t="n"/>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile Rive.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile Rive.md</t>
         </is>
       </c>
       <c r="J94" s="2" t="n"/>
@@ -4759,7 +5126,7 @@
       <c r="P94" s="2" t="n"/>
       <c r="Q94" s="2" t="n"/>
     </row>
-    <row r="95" ht="18.75" customHeight="1">
+    <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
@@ -4788,11 +5155,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G95" s="2" t="n"/>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment Report, titled "Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H95" s="2" t="n"/>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City.md</t>
         </is>
       </c>
       <c r="J95" s="2" t="n"/>
@@ -4804,7 +5175,7 @@
       <c r="P95" s="2" t="n"/>
       <c r="Q95" s="2" t="n"/>
     </row>
-    <row r="96" ht="18.75" customHeight="1">
+    <row r="96" ht="21" customHeight="1">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
@@ -4833,11 +5204,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G96" s="2" t="n"/>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Computer Science Textbook, titled "Advanced Data Structures and Algorithms" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H96" s="2" t="n"/>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>Advanced Data Structures and Algorithms.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Advanced Data Structures and Algorithms.md</t>
         </is>
       </c>
       <c r="J96" s="2" t="n"/>
@@ -4849,7 +5224,7 @@
       <c r="P96" s="2" t="n"/>
       <c r="Q96" s="2" t="n"/>
     </row>
-    <row r="97" ht="18.75" customHeight="1">
+    <row r="97" ht="21" customHeight="1">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
@@ -4878,11 +5253,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G97" s="2" t="n"/>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Computer Science Textbook, titled "Mastering Python Programming: From Basics to Advanced Applications" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H97" s="2" t="n"/>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>Mastering Python Programming: From Basics to Advanced Applications.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Mastering Python Programming: From Basics to Advanced Applications.md</t>
         </is>
       </c>
       <c r="J97" s="2" t="n"/>
@@ -4894,7 +5273,7 @@
       <c r="P97" s="2" t="n"/>
       <c r="Q97" s="2" t="n"/>
     </row>
-    <row r="98" ht="18.75" customHeight="1">
+    <row r="98" ht="21" customHeight="1">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
@@ -4923,11 +5302,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G98" s="2" t="n"/>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one English Textbook, titled "Grammar Comprehensive Guide: From Basics to Advanced" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H98" s="2" t="n"/>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>Grammar Comprehensive Guide: From Basics to Advanced.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Grammar Comprehensive Guide: From Basics to Advanced.md</t>
         </is>
       </c>
       <c r="J98" s="2" t="n"/>
@@ -4939,7 +5322,7 @@
       <c r="P98" s="2" t="n"/>
       <c r="Q98" s="2" t="n"/>
     </row>
-    <row r="99" ht="18.75" customHeight="1">
+    <row r="99" ht="21" customHeight="1">
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
@@ -4968,11 +5351,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G99" s="2" t="n"/>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one English Textbook, titled "Mastering English Writing Techniques: Essays, Reports, and Creative Writing" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H99" s="2" t="n"/>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>Mastering English Writing Techniques: Essays, Reports, and Creative Writing.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Mastering English Writing Techniques: Essays, Reports, and Creative Writing.md</t>
         </is>
       </c>
       <c r="J99" s="2" t="n"/>
@@ -4984,7 +5371,7 @@
       <c r="P99" s="2" t="n"/>
       <c r="Q99" s="2" t="n"/>
     </row>
-    <row r="100" ht="18.75" customHeight="1">
+    <row r="100" ht="21" customHeight="1">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
@@ -5013,11 +5400,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G100" s="2" t="n"/>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one History Textbook, titled "The Comprehensive Guide to World History" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H100" s="2" t="n"/>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>The Comprehensive Guide to World History.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Comprehensive Guide to World History.md</t>
         </is>
       </c>
       <c r="J100" s="2" t="n"/>
@@ -5029,7 +5420,7 @@
       <c r="P100" s="2" t="n"/>
       <c r="Q100" s="2" t="n"/>
     </row>
-    <row r="101" ht="18.75" customHeight="1">
+    <row r="101" ht="21" customHeight="1">
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
@@ -5058,11 +5449,15 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="G101" s="2" t="n"/>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one History Textbook, titled "American History: From Colonization to the 21st Century" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="H101" s="2" t="n"/>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>American History: From Colonization to the 21st Century.md</t>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/American History: From Colonization to the 21st Century.md</t>
         </is>
       </c>
       <c r="J101" s="2" t="n"/>

--- a/test/GPT4_test/output_refined.xlsx
+++ b/test/GPT4_test/output_refined.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzd\Desktop\DocDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1892D9E-3B25-402F-AB0D-C826C5BA49C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="269">
   <si>
     <t>id</t>
   </si>
@@ -82,24 +88,12 @@
     <t>DocDoc</t>
   </si>
   <si>
-    <t>I want to write one Adventure Fiction, titled "The Quest for the Golden Relic" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Quest for the Golden Relic.md</t>
-  </si>
-  <si>
     <t>The Lost Underwater City</t>
   </si>
   <si>
     <t>失落的海底城</t>
   </si>
   <si>
-    <t>I want to write one Adventure Fiction, titled "The Lost Underwater City" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Lost Underwater City.md</t>
-  </si>
-  <si>
     <t>Waiting for His Return: Love During World War II</t>
   </si>
   <si>
@@ -109,24 +103,12 @@
     <t>Romance Fiction</t>
   </si>
   <si>
-    <t>I want to write one Romance Fiction, titled "Waiting for His Return: Love During World War II" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Waiting for His Return: Love During World War II.md</t>
-  </si>
-  <si>
     <t>Love in Paris</t>
   </si>
   <si>
     <t>爱在巴黎</t>
   </si>
   <si>
-    <t>I want to write one Romance Fiction, titled "Love in Paris" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Love in Paris.md</t>
-  </si>
-  <si>
     <t>The Last Colony on Mars</t>
   </si>
   <si>
@@ -136,48 +118,24 @@
     <t>Science Fiction</t>
   </si>
   <si>
-    <t>I want to write one Science Fiction, titled "The Last Colony on Mars" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Last Colony on Mars.md</t>
-  </si>
-  <si>
     <t>Chronicles of the Galactic Empire</t>
   </si>
   <si>
     <t>银河帝国编年史</t>
   </si>
   <si>
-    <t>I want to write one Science Fiction, titled "Chronicles of the Galactic Empire" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Chronicles of the Galactic Empire.md</t>
-  </si>
-  <si>
     <t>Artificial Intelligence Crisis</t>
   </si>
   <si>
     <t>人工智能危机</t>
   </si>
   <si>
-    <t>I want to write one Science Fiction, titled "Artificial Intelligence Crisis" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Artificial Intelligence Crisis.md</t>
-  </si>
-  <si>
     <t>The Dark Side of the Moon</t>
   </si>
   <si>
     <t>月之暗面</t>
   </si>
   <si>
-    <t>I want to write one Science Fiction, titled "The Dark Side of the Moon" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Dark Side of the Moon.md</t>
-  </si>
-  <si>
     <t>The Dragon's Prophecy</t>
   </si>
   <si>
@@ -187,24 +145,12 @@
     <t>Fantasy Fiction</t>
   </si>
   <si>
-    <t>I want to write one Fantasy Fiction, titled "The Dragon's Prophecy" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Dragon's Prophecy.md</t>
-  </si>
-  <si>
     <t>The Enchanted Realm</t>
   </si>
   <si>
     <t>魔法王国</t>
   </si>
   <si>
-    <t>I want to write one Fantasy Fiction, titled "The Enchanted Realm" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Enchanted Realm.md</t>
-  </si>
-  <si>
     <t>The Shadows in the Basement</t>
   </si>
   <si>
@@ -214,24 +160,12 @@
     <t>Horror Fiction</t>
   </si>
   <si>
-    <t>I want to write one Horror Fiction, titled "The Shadows in the Basement" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Shadows in the Basement.md</t>
-  </si>
-  <si>
     <t>Echoes of the Night</t>
   </si>
   <si>
     <t>夜的回声</t>
   </si>
   <si>
-    <t>I want to write one Horror Fiction, titled "Echoes of the Night" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Echoes of the Night.md</t>
-  </si>
-  <si>
     <t>Night of Terror at the Inn</t>
   </si>
   <si>
@@ -241,24 +175,12 @@
     <t>Thriller Fiction</t>
   </si>
   <si>
-    <t>I want to write one Thriller Fiction, titled "Night of Terror at the Inn" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Night of Terror at the Inn.md</t>
-  </si>
-  <si>
     <t>Crossing the Deserted Streets</t>
   </si>
   <si>
     <t>穿越无人街道</t>
   </si>
   <si>
-    <t>I want to write one Thriller Fiction, titled "Crossing the Deserted Streets" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Crossing the Deserted Streets.md</t>
-  </si>
-  <si>
     <t>Murder by the Lake</t>
   </si>
   <si>
@@ -268,48 +190,24 @@
     <t>Mystery Fiction</t>
   </si>
   <si>
-    <t>I want to write one Mystery Fiction, titled "Murder by the Lake" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Murder by the Lake.md</t>
-  </si>
-  <si>
     <t>The Secret of Ravenclaw Hall</t>
   </si>
   <si>
     <t>拉文克劳大厅的秘密</t>
   </si>
   <si>
-    <t>I want to write one Mystery Fiction, titled "The Secret of Ravenclaw Hall" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Secret of Ravenclaw Hall.md</t>
-  </si>
-  <si>
     <t>The Museum Murder Mystery</t>
   </si>
   <si>
     <t>博物馆谋杀案</t>
   </si>
   <si>
-    <t>I want to write one Mystery Fiction, titled "The Museum Murder Mystery" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Museum Murder Mystery.md</t>
-  </si>
-  <si>
     <t>The Tragedy Aboard the Train</t>
   </si>
   <si>
     <t>列车上的惨案</t>
   </si>
   <si>
-    <t>I want to write one Mystery Fiction, titled "The Tragedy Aboard the Train" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Tragedy Aboard the Train.md</t>
-  </si>
-  <si>
     <t>The Ambition of Oda Nobunaga</t>
   </si>
   <si>
@@ -319,24 +217,12 @@
     <t>Historical Fiction</t>
   </si>
   <si>
-    <t>I want to write one Historical Fiction, titled "The Ambition of Oda Nobunaga" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Ambition of Oda Nobunaga.md</t>
-  </si>
-  <si>
     <t>The Last Emperor</t>
   </si>
   <si>
     <t>末代皇帝</t>
   </si>
   <si>
-    <t>I want to write one Historical Fiction, titled "The Last Emperor" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Last Emperor.md</t>
-  </si>
-  <si>
     <t>Legend of the Western Cowboy</t>
   </si>
   <si>
@@ -346,24 +232,12 @@
     <t>Drama</t>
   </si>
   <si>
-    <t>I want to write one Drama, titled "Legend of the Western Cowboy" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Legend of the Western Cowboy.md</t>
-  </si>
-  <si>
     <t>Battle of Two Cities</t>
   </si>
   <si>
     <t>双城之战</t>
   </si>
   <si>
-    <t>I want to write one Drama, titled "Battle of Two Cities" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Battle of Two Cities.md</t>
-  </si>
-  <si>
     <t>2024 Election: Pennsylvania and Wisconsin Emerge as Pivotal Swing States</t>
   </si>
   <si>
@@ -373,24 +247,12 @@
     <t>Political News</t>
   </si>
   <si>
-    <t>I want to write one Political News, titled "2024 Election: Pennsylvania and Wisconsin Emerge as Pivotal Swing States" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/2024 Election: Pennsylvania and Wisconsin Emerge as Pivotal Swing States.md</t>
-  </si>
-  <si>
     <t>Pentagon Releases Indo-Pacific Strategy: Focuses on Countering China's Military Expansion</t>
   </si>
   <si>
     <t>五角大楼发布印太战略:重点对抗中国军事扩张</t>
   </si>
   <si>
-    <t>I want to write one Political News, titled "Pentagon Releases Indo-Pacific Strategy: Focuses on Countering China's Military Expansion" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Pentagon Releases Indo-Pacific Strategy: Focuses on Countering China's Military Expansion.md</t>
-  </si>
-  <si>
     <t>Global Markets Rally Amid Economic Recovery Hopes</t>
   </si>
   <si>
@@ -400,24 +262,12 @@
     <t>Business and Economy News</t>
   </si>
   <si>
-    <t>I want to write one Business and Economy News, titled "Global Markets Rally Amid Economic Recovery Hopes" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Global Markets Rally Amid Economic Recovery Hopes.md</t>
-  </si>
-  <si>
     <t>Housing Market Bubble Warning: Home Prices Soar as Inventory Hits Record Lows</t>
   </si>
   <si>
     <t>房地产市场泡沫预警：房价飙升，库存创历史新低</t>
   </si>
   <si>
-    <t>I want to write one Business and Economy News, titled "Housing Market Bubble Warning: Home Prices Soar as Inventory Hits Record Lows" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Housing Market Bubble Warning: Home Prices Soar as Inventory Hits Record Lows.md</t>
-  </si>
-  <si>
     <t>Breakthrough in Quantum Computing: What It Means for the Future</t>
   </si>
   <si>
@@ -427,24 +277,12 @@
     <t>Technology News</t>
   </si>
   <si>
-    <t>I want to write one Technology News, titled "Breakthrough in Quantum Computing: What It Means for the Future" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Breakthrough in Quantum Computing: What It Means for the Future.md</t>
-  </si>
-  <si>
     <t>The Rise of Artificial Intelligence: Transforming Our Daily Lives</t>
   </si>
   <si>
     <t>人工智能的崛起：改变我们的日常生活</t>
   </si>
   <si>
-    <t>I want to write one Technology News, titled "The Rise of Artificial Intelligence: Transforming Our Daily Lives" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Rise of Artificial Intelligence: Transforming Our Daily Lives.md</t>
-  </si>
-  <si>
     <t>World Cup Qualifiers: Latest Results and Highlights</t>
   </si>
   <si>
@@ -454,24 +292,12 @@
     <t>Sports News</t>
   </si>
   <si>
-    <t>I want to write one Sports News, titled "World Cup Qualifiers: Latest Results and Highlights" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/World Cup Qualifiers: Latest Results and Highlights.md</t>
-  </si>
-  <si>
     <t>Olympic Games Recap: Medal Tally and Memorabilia</t>
   </si>
   <si>
     <t>奥运会回顾：奖牌榜和纪念品</t>
   </si>
   <si>
-    <t>I want to write one Sports News, titled "Olympic Games Recap: Medal Tally and Memorabilia" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Olympic Games Recap: Medal Tally and Memorabilia.md</t>
-  </si>
-  <si>
     <t>Coldplay Announces Global Tour Kickoff in Tokyo, Japan for 2024</t>
   </si>
   <si>
@@ -481,24 +307,12 @@
     <t>Entertainment News</t>
   </si>
   <si>
-    <t>I want to write one Entertainment News, titled "Coldplay Announces Global Tour Kickoff in Tokyo, Japan for 2024" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Coldplay Announces Global Tour Kickoff in Tokyo, Japan for 2024.md</t>
-  </si>
-  <si>
     <t>Dating Rumors? Taylor Swift Declares They Are Just Friends</t>
   </si>
   <si>
     <t>目击到约会？泰勒斯威夫特宣称只是朋友</t>
   </si>
   <si>
-    <t>I want to write one Entertainment News, titled "Dating Rumors? Taylor Swift Declares They Are Just Friends" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Dating Rumors? Taylor Swift Declares They Are Just Friends.md</t>
-  </si>
-  <si>
     <t>Breakthrough in Cancer Research: New Treatment Shows Promising Results</t>
   </si>
   <si>
@@ -508,24 +322,12 @@
     <t>Science and Health News</t>
   </si>
   <si>
-    <t>I want to write one Science and Health News, titled "Breakthrough in Cancer Research: New Treatment Shows Promising Results" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Breakthrough in Cancer Research: New Treatment Shows Promising Results.md</t>
-  </si>
-  <si>
     <t>The Rising Concern of Mental Health Issues Among Teenagers</t>
   </si>
   <si>
     <t>青少年心理健康问题的日益关注</t>
   </si>
   <si>
-    <t>I want to write one Science and Health News, titled "The Rising Concern of Mental Health Issues Among Teenagers" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Rising Concern of Mental Health Issues Among Teenagers.md</t>
-  </si>
-  <si>
     <t>The Impact of Plastic Waste on Marine Life</t>
   </si>
   <si>
@@ -535,24 +337,12 @@
     <t>Environment News</t>
   </si>
   <si>
-    <t>I want to write one Environment News, titled "The Impact of Plastic Waste on Marine Life" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of Plastic Waste on Marine Life.md</t>
-  </si>
-  <si>
     <t>Climate Change: The Global Call to Action</t>
   </si>
   <si>
     <t>气候变化：全球行动的呼吁</t>
   </si>
   <si>
-    <t>I want to write one Environment News, titled "Climate Change: The Global Call to Action" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Climate Change: The Global Call to Action.md</t>
-  </si>
-  <si>
     <t>Modi Wins Third Term: Domestic Challenges and Global Ambitions of Indian Prime Minister</t>
   </si>
   <si>
@@ -562,24 +352,12 @@
     <t>Political Opinion</t>
   </si>
   <si>
-    <t>I want to write one Political Opinion, titled "Modi Wins Third Term: Domestic Challenges and Global Ambitions of Indian Prime Minister" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Modi Wins Third Term: Domestic Challenges and Global Ambitions of Indian Prime Minister.md</t>
-  </si>
-  <si>
     <t>American Immigration: Analyzing the Similarities and Differences Between Biden and Trump's Border Policies</t>
   </si>
   <si>
     <t>美国移民：解析拜登和特朗普边境政策的异同</t>
   </si>
   <si>
-    <t>I want to write one Political Opinion, titled "American Immigration: Analyzing the Similarities and Differences Between Biden and Trump's Border Policies" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/American Immigration: Analyzing the Similarities and Differences Between Biden and Trump's Border Policies.md</t>
-  </si>
-  <si>
     <t>The Aging Population: Rethinking Retirement and Elder Care in the 21st Century</t>
   </si>
   <si>
@@ -589,24 +367,12 @@
     <t>Social Commentary</t>
   </si>
   <si>
-    <t>I want to write one Social Commentary, titled "The Aging Population: Rethinking Retirement and Elder Care in the 21st Century" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Aging Population: Rethinking Retirement and Elder Care in the 21st Century.md</t>
-  </si>
-  <si>
     <t>The Impact of Social Media on Society</t>
   </si>
   <si>
     <t>社交媒体对社会的影响</t>
   </si>
   <si>
-    <t>I want to write one Social Commentary, titled "The Impact of Social Media on Society" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of Social Media on Society.md</t>
-  </si>
-  <si>
     <t>Japanese businesses are trapped between America and China</t>
   </si>
   <si>
@@ -616,24 +382,12 @@
     <t>Economic Opinion</t>
   </si>
   <si>
-    <t>I want to write one Economic Opinion, titled "Japanese businesses are trapped between America and China" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Japanese businesses are trapped between America and China.md</t>
-  </si>
-  <si>
     <t>Tourism Industry Recovery: Challenges and Opportunities After the COVID-19 Pandemic</t>
   </si>
   <si>
     <t>旅游业复苏：新冠疫情后的挑战与机遇</t>
   </si>
   <si>
-    <t>I want to write one Economic Opinion, titled "Tourism Industry Recovery: Challenges and Opportunities After the COVID-19 Pandemic" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Tourism Industry Recovery: Challenges and Opportunities After the COVID-19 Pandemic.md</t>
-  </si>
-  <si>
     <t>The Absurdity of Modern Office Life</t>
   </si>
   <si>
@@ -643,24 +397,12 @@
     <t>Satire and Humor Opinion</t>
   </si>
   <si>
-    <t>I want to write one Satire and Humor Opinion, titled "The Absurdity of Modern Office Life" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Absurdity of Modern Office Life.md</t>
-  </si>
-  <si>
     <t>Breaking: Nation Shocked as Study Reveals Money Can't Buy Happiness, But It Can Rent a Jet Ski</t>
   </si>
   <si>
     <t>突发新闻：研究揭示金钱买不来幸福，但可以租一艘水上摩托艇</t>
   </si>
   <si>
-    <t>I want to write one Satire and Humor Opinion, titled "Breaking: Nation Shocked as Study Reveals Money Can't Buy Happiness, But It Can Rent a Jet Ski" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Breaking: Nation Shocked as Study Reveals Money Can't Buy Happiness, But It Can Rent a Jet Ski.md</t>
-  </si>
-  <si>
     <t>A Deep Dive into 'Inception': A Movie Review</t>
   </si>
   <si>
@@ -670,24 +412,12 @@
     <t>Movie review or Book review</t>
   </si>
   <si>
-    <t>I want to write one Movie review or Book review, titled "A Deep Dive into 'Inception': A Movie Review" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/A Deep Dive into 'Inception': A Movie Review.md</t>
-  </si>
-  <si>
     <t>Exploring the Magic of 'Harry Potter and the Sorcerer's Stone': A Book Review</t>
   </si>
   <si>
     <t>探索《哈利波特与魔法石》的魔力：书评</t>
   </si>
   <si>
-    <t>I want to write one Movie review or Book review, titled "Exploring the Magic of 'Harry Potter and the Sorcerer's Stone': A Book Review" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Exploring the Magic of 'Harry Potter and the Sorcerer's Stone': A Book Review.md</t>
-  </si>
-  <si>
     <t>Theoretical Research and Stability Analysis of K-essence Dark Energy Model in Cosmological Evolution.</t>
   </si>
   <si>
@@ -700,24 +430,12 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>I want to write one Physics Paper, titled "Theoretical Research and Stability Analysis of K-essence Dark Energy Model in Cosmological Evolution." Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Theoretical Research and Stability Analysis of K-essence Dark Energy Model in Cosmological Evolution..md</t>
-  </si>
-  <si>
     <t>Research on the Influence and Physical Mechanism of Magnetic Field Disturbances on the Behavior of High-Energy Particles in EAST Device.</t>
   </si>
   <si>
     <t>EAST装置中磁场扰动对高能粒子行为的影响与物理机制的研究</t>
   </si>
   <si>
-    <t>I want to write one Physics Paper, titled "Research on the Influence and Physical Mechanism of Magnetic Field Disturbances on the Behavior of High-Energy Particles in EAST Device." Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Research on the Influence and Physical Mechanism of Magnetic Field Disturbances on the Behavior of High-Energy Particles in EAST Device..md</t>
-  </si>
-  <si>
     <t>Research on the Application and Performance of Nanotechnology-Modified Polymer Membranes in Oil-Water Separation</t>
   </si>
   <si>
@@ -727,24 +445,12 @@
     <t>Chemistry Paper</t>
   </si>
   <si>
-    <t>I want to write one Chemistry Paper, titled "Research on the Application and Performance of Nanotechnology-Modified Polymer Membranes in Oil-Water Separation" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Research on the Application and Performance of Nanotechnology-Modified Polymer Membranes in Oil-Water Separation.md</t>
-  </si>
-  <si>
     <t>Operando Spectroscopic and Electrokinetic Analysis of Formic Acid Oxidation on Copper Surfaces</t>
   </si>
   <si>
     <t>铜表面上甲酸氧化反应的原位光谱与电动分析</t>
   </si>
   <si>
-    <t>I want to write one Chemistry Paper, titled "Operando Spectroscopic and Electrokinetic Analysis of Formic Acid Oxidation on Copper Surfaces" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Operando Spectroscopic and Electrokinetic Analysis of Formic Acid Oxidation on Copper Surfaces.md</t>
-  </si>
-  <si>
     <t>The Protective Effect of Interleukin-4 on Retinal Ganglion Cells and Its Role in Promoting Axon Regeneration</t>
   </si>
   <si>
@@ -754,24 +460,12 @@
     <t>Biology Paper</t>
   </si>
   <si>
-    <t>I want to write one Biology Paper, titled "The Protective Effect of Interleukin-4 on Retinal Ganglion Cells and Its Role in Promoting Axon Regeneration" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Protective Effect of Interleukin-4 on Retinal Ganglion Cells and Its Role in Promoting Axon Regeneration.md</t>
-  </si>
-  <si>
     <t>The Impact of the Gut Microbiota in Aged Rats on Spontaneous Seizure-like Discharges and Seizure Threshold: Mechanisms Involving Macrophages and Microglia</t>
   </si>
   <si>
     <t>老年鼠肠道菌群对自发性痫样放电及癫痫发作阈值影响的巨噬细胞及小胶质细胞机制</t>
   </si>
   <si>
-    <t>I want to write one Biology Paper, titled "The Impact of the Gut Microbiota in Aged Rats on Spontaneous Seizure-like Discharges and Seizure Threshold: Mechanisms Involving Macrophages and Microglia" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of the Gut Microbiota in Aged Rats on Spontaneous Seizure-like Discharges and Seizure Threshold: Mechanisms Involving Macrophages and Microglia.md</t>
-  </si>
-  <si>
     <t>Evaluating the Impact of Deforestation on Biodiversity</t>
   </si>
   <si>
@@ -781,24 +475,12 @@
     <t>Environment Paper</t>
   </si>
   <si>
-    <t>I want to write one Environment Paper, titled "Evaluating the Impact of Deforestation on Biodiversity" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Evaluating the Impact of Deforestation on Biodiversity.md</t>
-  </si>
-  <si>
     <t>The Impact of Salinity on Membrane Surface Properties and Fouling Behavior: Real-Time Analysis of Dynamic Interfaces</t>
   </si>
   <si>
     <t>盐度对膜表面特性和污染行为的影响：动态界面的实时分析</t>
   </si>
   <si>
-    <t>I want to write one Environment Paper, titled "The Impact of Salinity on Membrane Surface Properties and Fouling Behavior: Real-Time Analysis of Dynamic Interfaces" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of Salinity on Membrane Surface Properties and Fouling Behavior: Real-Time Analysis of Dynamic Interfaces.md</t>
-  </si>
-  <si>
     <t>NG-Sort: An Efficient Algorithm for Large-Scale Data Sorting</t>
   </si>
   <si>
@@ -808,24 +490,12 @@
     <t>Computer Science Paper</t>
   </si>
   <si>
-    <t>I want to write one Computer Science Paper, titled "NG-Sort: An Efficient Algorithm for Large-Scale Data Sorting" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/NG-Sort: An Efficient Algorithm for Large-Scale Data Sorting.md</t>
-  </si>
-  <si>
     <t>Research on Reliability Modeling and Optimization of Large-Scale Cloud Computing Systems</t>
   </si>
   <si>
     <t>大规模云计算系统的可靠性建模及优化研究</t>
   </si>
   <si>
-    <t>I want to write one Computer Science Paper, titled "Research on Reliability Modeling and Optimization of Large-Scale Cloud Computing Systems" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Research on Reliability Modeling and Optimization of Large-Scale Cloud Computing Systems.md</t>
-  </si>
-  <si>
     <t>KOLO: a improved neural nextwork architecture for image recognition</t>
   </si>
   <si>
@@ -835,24 +505,12 @@
     <t>Artificial Intelligence Paper</t>
   </si>
   <si>
-    <t>I want to write one Artificial Intelligence Paper, titled "KOLO: a improved neural nextwork architecture for image recognition" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/KOLO: a improved neural nextwork architecture for image recognition.md</t>
-  </si>
-  <si>
     <t>Research on long text generation algorithm based on improved RNN architecture</t>
   </si>
   <si>
     <t>基于改进RNN架构的长文本生成算法研究</t>
   </si>
   <si>
-    <t>I want to write one Artificial Intelligence Paper, titled "Research on long text generation algorithm based on improved RNN architecture" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Research on long text generation algorithm based on improved RNN architecture.md</t>
-  </si>
-  <si>
     <t>The Ethics of Artificial Intelligence: A Kantian Perspective</t>
   </si>
   <si>
@@ -862,24 +520,12 @@
     <t>Philosophy Paper</t>
   </si>
   <si>
-    <t>I want to write one Philosophy Paper, titled "The Ethics of Artificial Intelligence: A Kantian Perspective" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Ethics of Artificial Intelligence: A Kantian Perspective.md</t>
-  </si>
-  <si>
     <t>Nihilism and Existentialism: A Comparative Study</t>
   </si>
   <si>
     <t>虚无主义和存在主义：比较研究</t>
   </si>
   <si>
-    <t>I want to write one Philosophy Paper, titled "Nihilism and Existentialism: A Comparative Study" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Nihilism and Existentialism: A Comparative Study.md</t>
-  </si>
-  <si>
     <t>The Cognitive Impact of Social Media Usage: A Comprehensive Study</t>
   </si>
   <si>
@@ -889,24 +535,12 @@
     <t>Psychology Paper</t>
   </si>
   <si>
-    <t>I want to write one Psychology Paper, titled "The Cognitive Impact of Social Media Usage: A Comprehensive Study" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Cognitive Impact of Social Media Usage: A Comprehensive Study.md</t>
-  </si>
-  <si>
     <t>Behavioral Analysis of Anxiety Disorders: Current Trends and Future Directions</t>
   </si>
   <si>
     <t>焦虑障碍的行为分析：当前趋势和未来方向</t>
   </si>
   <si>
-    <t>I want to write one Psychology Paper, titled "Behavioral Analysis of Anxiety Disorders: Current Trends and Future Directions" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Behavioral Analysis of Anxiety Disorders: Current Trends and Future Directions.md</t>
-  </si>
-  <si>
     <t>The Rise and Fall of the Roman Empire</t>
   </si>
   <si>
@@ -916,24 +550,12 @@
     <t>History Paper</t>
   </si>
   <si>
-    <t>I want to write one History Paper, titled "The Rise and Fall of the Roman Empire" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Rise and Fall of the Roman Empire.md</t>
-  </si>
-  <si>
     <t>The Impact of the Industrial Revolution on European Society</t>
   </si>
   <si>
     <t>工业革命对欧洲社会的影响</t>
   </si>
   <si>
-    <t>I want to write one History Paper, titled "The Impact of the Industrial Revolution on European Society" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Impact of the Industrial Revolution on European Society.md</t>
-  </si>
-  <si>
     <t>The Evolution of Social Norms: A Comparative Analysis</t>
   </si>
   <si>
@@ -943,24 +565,12 @@
     <t>Sociology Paper</t>
   </si>
   <si>
-    <t>I want to write one Sociology Paper, titled "The Evolution of Social Norms: A Comparative Analysis" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Evolution of Social Norms: A Comparative Analysis.md</t>
-  </si>
-  <si>
     <t>Impact of Social Media on Interpersonal Relationships</t>
   </si>
   <si>
     <t>社交媒体对人际关系的影响</t>
   </si>
   <si>
-    <t>I want to write one Sociology Paper, titled "Impact of Social Media on Interpersonal Relationships" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Impact of Social Media on Interpersonal Relationships.md</t>
-  </si>
-  <si>
     <t>Alexander the Great</t>
   </si>
   <si>
@@ -970,24 +580,12 @@
     <t>a historical figure's encyclopedia articles</t>
   </si>
   <si>
-    <t>I want to write one a historical figure's encyclopedia articles, titled "Alexander the Great" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Alexander the Great.md</t>
-  </si>
-  <si>
     <t>Napoleon Bonaparte</t>
   </si>
   <si>
     <t>拿破仑·波拿巴</t>
   </si>
   <si>
-    <t>I want to write one a historical figure's encyclopedia articles, titled "Napoleon Bonaparte" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Napoleon Bonaparte.md</t>
-  </si>
-  <si>
     <t>Battle of Gettysburg</t>
   </si>
   <si>
@@ -997,24 +595,12 @@
     <t>a historical event's encyclopedia articles</t>
   </si>
   <si>
-    <t>I want to write one a historical event's encyclopedia articles, titled "Battle of Gettysburg" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Battle of Gettysburg.md</t>
-  </si>
-  <si>
     <t>Berlin Wall</t>
   </si>
   <si>
     <t>柏林墙</t>
   </si>
   <si>
-    <t>I want to write one a historical event's encyclopedia articles, titled "Berlin Wall" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Berlin Wall.md</t>
-  </si>
-  <si>
     <t>Quantum Mechanics</t>
   </si>
   <si>
@@ -1024,24 +610,12 @@
     <t>a terminology's encyclopedia articles</t>
   </si>
   <si>
-    <t>I want to write one a terminology's encyclopedia articles, titled "Quantum Mechanics" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Quantum Mechanics.md</t>
-  </si>
-  <si>
     <t>Genetic Engineering</t>
   </si>
   <si>
     <t>基因工程</t>
   </si>
   <si>
-    <t>I want to write one a terminology's encyclopedia articles, titled "Genetic Engineering" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Genetic Engineering.md</t>
-  </si>
-  <si>
     <t>League_of_Legends</t>
   </si>
   <si>
@@ -1051,24 +625,12 @@
     <t>a computer game's encyclopedia articles</t>
   </si>
   <si>
-    <t>I want to write one a computer game's encyclopedia articles, titled "League_of_Legends" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/League_of_Legends.md</t>
-  </si>
-  <si>
     <t>Minecraft</t>
   </si>
   <si>
     <t>我的世界</t>
   </si>
   <si>
-    <t>I want to write one a computer game's encyclopedia articles, titled "Minecraft" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Minecraft.md</t>
-  </si>
-  <si>
     <t>Microsoft Corporation</t>
   </si>
   <si>
@@ -1078,24 +640,12 @@
     <t>a company's encyclopedia articles</t>
   </si>
   <si>
-    <t>I want to write one a company's encyclopedia articles, titled "Microsoft Corporation" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Microsoft Corporation.md</t>
-  </si>
-  <si>
     <t>Apple Inc.</t>
   </si>
   <si>
     <t>苹果</t>
   </si>
   <si>
-    <t>I want to write one a company's encyclopedia articles, titled "Apple Inc." Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Apple Inc..md</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -1105,24 +655,12 @@
     <t>a country's encyclopedia articles</t>
   </si>
   <si>
-    <t>I want to write one a country's encyclopedia articles, titled "Japan" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Japan.md</t>
-  </si>
-  <si>
     <t>United States of America</t>
   </si>
   <si>
     <t>美国</t>
   </si>
   <si>
-    <t>I want to write one a country's encyclopedia articles, titled "United States of America" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/United States of America.md</t>
-  </si>
-  <si>
     <t>Development Technical Report on an Automatic License Plate Recognition System Based on Python and YOLOv8</t>
   </si>
   <si>
@@ -1135,24 +673,12 @@
     <t>Deep</t>
   </si>
   <si>
-    <t>I want to write one IT Report, titled "Development Technical Report on an Automatic License Plate Recognition System Based on Python and YOLOv8" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Development Technical Report on an Automatic License Plate Recognition System Based on Python and YOLOv8.md</t>
-  </si>
-  <si>
     <t>Technical Report on the Development of an E-commerce System Based on Java Spring and React</t>
   </si>
   <si>
     <t>基于JavaSpring和React的电子商务系统开发技术报告</t>
   </si>
   <si>
-    <t>I want to write one IT Report, titled "Technical Report on the Development of an E-commerce System Based on Java Spring and React" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Technical Report on the Development of an E-commerce System Based on Java Spring and React.md</t>
-  </si>
-  <si>
     <t>Comprehensive Clinical Study Report on Novel Cardiovascular Therapies</t>
   </si>
   <si>
@@ -1162,24 +688,12 @@
     <t>Medicine Report</t>
   </si>
   <si>
-    <t>I want to write one Medicine Report, titled "Comprehensive Clinical Study Report on Novel Cardiovascular Therapies" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Comprehensive Clinical Study Report on Novel Cardiovascular Therapies.md</t>
-  </si>
-  <si>
     <t>In-depth Analysis of COVID-19 Vaccine Efficacy: A Clinical Study Report</t>
   </si>
   <si>
     <t>COVID-19疫苗效力的深入分析：临床研究报告</t>
   </si>
   <si>
-    <t>I want to write one Medicine Report, titled "In-depth Analysis of COVID-19 Vaccine Efficacy: A Clinical Study Report" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/In-depth Analysis of COVID-19 Vaccine Efficacy: A Clinical Study Report.md</t>
-  </si>
-  <si>
     <t>Annual Financial Risk Assessment Report of Banabi Company</t>
   </si>
   <si>
@@ -1189,250 +703,142 @@
     <t>Finance Report</t>
   </si>
   <si>
-    <t>I want to write one Finance Report, titled "Annual Financial Risk Assessment Report of Banabi Company" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Annual Financial Risk Assessment Report of Banabi Company.md</t>
+    <t>佳能公司2023年秋季财务分析报告</t>
+  </si>
+  <si>
+    <t>Course Evaluation Report on Modern Education Practices</t>
+  </si>
+  <si>
+    <t>现代教育实践的课程评估报告</t>
+  </si>
+  <si>
+    <t>Education Report</t>
+  </si>
+  <si>
+    <t>Project-Based Learning: An In-depth Course Evaluation Report</t>
+  </si>
+  <si>
+    <t>基于项目的学习：深入课程评估报告</t>
+  </si>
+  <si>
+    <t>Case Assessment Report on Corporate Fraud Investigations</t>
+  </si>
+  <si>
+    <t>企业欺诈调查的案例评估报告</t>
+  </si>
+  <si>
+    <t>Law Report</t>
+  </si>
+  <si>
+    <t>Legal Analysis of Intellectual Property Disputes: A Comprehensive Study</t>
+  </si>
+  <si>
+    <t>知识产权纠纷的法律分析：全面研究</t>
+  </si>
+  <si>
+    <t>Chicago Bridge Construction Project Management Report</t>
+  </si>
+  <si>
+    <t>芝加哥大桥建设工程管理报告</t>
+  </si>
+  <si>
+    <t>Management Report</t>
+  </si>
+  <si>
+    <t>Narto Company's Annual Management Report: Strategic Growth and Development</t>
+  </si>
+  <si>
+    <t>narto公司年度管理报告：战略增长与发展</t>
+  </si>
+  <si>
+    <t>Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai</t>
+  </si>
+  <si>
+    <t>汽车行业精益生产流程效率分析——以上海特斯拉工厂为例</t>
+  </si>
+  <si>
+    <t>Manufacturing Report</t>
+  </si>
+  <si>
+    <t>A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example</t>
+  </si>
+  <si>
+    <t>电子制造业装配线平衡优化案例研究——以富士康为例</t>
+  </si>
+  <si>
+    <t>Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile Rive</t>
+  </si>
+  <si>
+    <t>尼罗河上游水电站建设项目环境影响评价报告</t>
+  </si>
+  <si>
+    <t>Environment Report</t>
+  </si>
+  <si>
+    <t>Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City</t>
+  </si>
+  <si>
+    <t>纽约市榆树街新足球场建设项目环境影响评价报告</t>
+  </si>
+  <si>
+    <t>Advanced Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>高级数据结构和算法</t>
+  </si>
+  <si>
+    <t>Computer Science Textbook</t>
+  </si>
+  <si>
+    <t>Mastering Python Programming: From Basics to Advanced Applications</t>
+  </si>
+  <si>
+    <t>掌握Python编程：从基础到高级应用</t>
+  </si>
+  <si>
+    <t>Grammar Comprehensive Guide: From Basics to Advanced</t>
+  </si>
+  <si>
+    <t>语法综合指南：从基础到高级</t>
+  </si>
+  <si>
+    <t>English Textbook</t>
+  </si>
+  <si>
+    <t>Mastering English Writing Techniques: Essays, Reports, and Creative Writing</t>
+  </si>
+  <si>
+    <t>掌握英语写作技巧：论文、报告和创意写作</t>
+  </si>
+  <si>
+    <t>The Comprehensive Guide to World History</t>
+  </si>
+  <si>
+    <t>世界历史的综合指南</t>
+  </si>
+  <si>
+    <t>History Textbook</t>
+  </si>
+  <si>
+    <t>American History: From Colonization to the 21st Century</t>
+  </si>
+  <si>
+    <t>美国历史：从殖民到21世纪</t>
   </si>
   <si>
     <t>Canon Company's Financial Analysis Report for the Fall of 2023</t>
-  </si>
-  <si>
-    <t>佳能公司2023年秋季财务分析报告</t>
-  </si>
-  <si>
-    <t>I want to write one Finance Report, titled "Canon Company's Financial Analysis Report for the Fall of 2023" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Canon Company's Financial Analysis Report for the Fall of 2023.md</t>
-  </si>
-  <si>
-    <t>Course Evaluation Report on Modern Education Practices</t>
-  </si>
-  <si>
-    <t>现代教育实践的课程评估报告</t>
-  </si>
-  <si>
-    <t>Education Report</t>
-  </si>
-  <si>
-    <t>I want to write one Education Report, titled "Course Evaluation Report on Modern Education Practices" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Course Evaluation Report on Modern Education Practices.md</t>
-  </si>
-  <si>
-    <t>Project-Based Learning: An In-depth Course Evaluation Report</t>
-  </si>
-  <si>
-    <t>基于项目的学习：深入课程评估报告</t>
-  </si>
-  <si>
-    <t>I want to write one Education Report, titled "Project-Based Learning: An In-depth Course Evaluation Report" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Project-Based Learning: An In-depth Course Evaluation Report.md</t>
-  </si>
-  <si>
-    <t>Case Assessment Report on Corporate Fraud Investigations</t>
-  </si>
-  <si>
-    <t>企业欺诈调查的案例评估报告</t>
-  </si>
-  <si>
-    <t>Law Report</t>
-  </si>
-  <si>
-    <t>I want to write one Law Report, titled "Case Assessment Report on Corporate Fraud Investigations" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Case Assessment Report on Corporate Fraud Investigations.md</t>
-  </si>
-  <si>
-    <t>Legal Analysis of Intellectual Property Disputes: A Comprehensive Study</t>
-  </si>
-  <si>
-    <t>知识产权纠纷的法律分析：全面研究</t>
-  </si>
-  <si>
-    <t>I want to write one Law Report, titled "Legal Analysis of Intellectual Property Disputes: A Comprehensive Study" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Legal Analysis of Intellectual Property Disputes: A Comprehensive Study.md</t>
-  </si>
-  <si>
-    <t>Chicago Bridge Construction Project Management Report</t>
-  </si>
-  <si>
-    <t>芝加哥大桥建设工程管理报告</t>
-  </si>
-  <si>
-    <t>Management Report</t>
-  </si>
-  <si>
-    <t>I want to write one Management Report, titled "Chicago Bridge Construction Project Management Report" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Chicago Bridge Construction Project Management Report.md</t>
-  </si>
-  <si>
-    <t>Narto Company's Annual Management Report: Strategic Growth and Development</t>
-  </si>
-  <si>
-    <t>narto公司年度管理报告：战略增长与发展</t>
-  </si>
-  <si>
-    <t>I want to write one Management Report, titled "Narto Company's Annual Management Report: Strategic Growth and Development" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Narto Company's Annual Management Report: Strategic Growth and Development.md</t>
-  </si>
-  <si>
-    <t>Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai</t>
-  </si>
-  <si>
-    <t>汽车行业精益生产流程效率分析——以上海特斯拉工厂为例</t>
-  </si>
-  <si>
-    <t>Manufacturing Report</t>
-  </si>
-  <si>
-    <t>I want to write one Manufacturing Report, titled "Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai.md</t>
-  </si>
-  <si>
-    <t>A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example</t>
-  </si>
-  <si>
-    <t>电子制造业装配线平衡优化案例研究——以富士康为例</t>
-  </si>
-  <si>
-    <t>I want to write one Manufacturing Report, titled "A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example.md</t>
-  </si>
-  <si>
-    <t>Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile Rive</t>
-  </si>
-  <si>
-    <t>尼罗河上游水电站建设项目环境影响评价报告</t>
-  </si>
-  <si>
-    <t>Environment Report</t>
-  </si>
-  <si>
-    <t>I want to write one Environment Report, titled "Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile Rive" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile Rive.md</t>
-  </si>
-  <si>
-    <t>Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City</t>
-  </si>
-  <si>
-    <t>纽约市榆树街新足球场建设项目环境影响评价报告</t>
-  </si>
-  <si>
-    <t>I want to write one Environment Report, titled "Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City.md</t>
-  </si>
-  <si>
-    <t>Advanced Data Structures and Algorithms</t>
-  </si>
-  <si>
-    <t>高级数据结构和算法</t>
-  </si>
-  <si>
-    <t>Computer Science Textbook</t>
-  </si>
-  <si>
-    <t>I want to write one Computer Science Textbook, titled "Advanced Data Structures and Algorithms" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Advanced Data Structures and Algorithms.md</t>
-  </si>
-  <si>
-    <t>Mastering Python Programming: From Basics to Advanced Applications</t>
-  </si>
-  <si>
-    <t>掌握Python编程：从基础到高级应用</t>
-  </si>
-  <si>
-    <t>I want to write one Computer Science Textbook, titled "Mastering Python Programming: From Basics to Advanced Applications" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Mastering Python Programming: From Basics to Advanced Applications.md</t>
-  </si>
-  <si>
-    <t>Grammar Comprehensive Guide: From Basics to Advanced</t>
-  </si>
-  <si>
-    <t>语法综合指南：从基础到高级</t>
-  </si>
-  <si>
-    <t>English Textbook</t>
-  </si>
-  <si>
-    <t>I want to write one English Textbook, titled "Grammar Comprehensive Guide: From Basics to Advanced" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Grammar Comprehensive Guide: From Basics to Advanced.md</t>
-  </si>
-  <si>
-    <t>Mastering English Writing Techniques: Essays, Reports, and Creative Writing</t>
-  </si>
-  <si>
-    <t>掌握英语写作技巧：论文、报告和创意写作</t>
-  </si>
-  <si>
-    <t>I want to write one English Textbook, titled "Mastering English Writing Techniques: Essays, Reports, and Creative Writing" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Mastering English Writing Techniques: Essays, Reports, and Creative Writing.md</t>
-  </si>
-  <si>
-    <t>The Comprehensive Guide to World History</t>
-  </si>
-  <si>
-    <t>世界历史的综合指南</t>
-  </si>
-  <si>
-    <t>History Textbook</t>
-  </si>
-  <si>
-    <t>I want to write one History Textbook, titled "The Comprehensive Guide to World History" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/The Comprehensive Guide to World History.md</t>
-  </si>
-  <si>
-    <t>American History: From Colonization to the 21st Century</t>
-  </si>
-  <si>
-    <t>美国历史：从殖民到21世纪</t>
-  </si>
-  <si>
-    <t>I want to write one History Textbook, titled "American History: From Colonization to the 21st Century" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
-  </si>
-  <si>
-    <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/American History: From Colonization to the 21st Century.md</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1459,6 +865,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1489,34 +902,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1527,10 +943,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1568,71 +984,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1660,7 +1076,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1683,11 +1099,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1696,13 +1112,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1712,7 +1128,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1721,7 +1137,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1730,7 +1146,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1738,10 +1154,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1806,36 +1222,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="5" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="66.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="49.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="5.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1907,13 +1317,9 @@
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1923,15 +1329,15 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -1942,13 +1348,9 @@
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1958,18 +1360,18 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1977,13 +1379,9 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1993,18 +1391,18 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -2012,13 +1410,9 @@
       <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2028,18 +1422,18 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -2047,13 +1441,9 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2063,18 +1453,18 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -2082,13 +1472,9 @@
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2098,18 +1484,18 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -2117,13 +1503,9 @@
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2133,18 +1515,18 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -2152,13 +1534,9 @@
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2168,18 +1546,18 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -2187,13 +1565,9 @@
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2203,18 +1577,18 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -2222,13 +1596,9 @@
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2238,18 +1608,18 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -2257,13 +1627,9 @@
       <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2273,18 +1639,18 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -2292,13 +1658,9 @@
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2308,18 +1670,18 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -2327,13 +1689,9 @@
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2343,18 +1701,18 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -2362,13 +1720,9 @@
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2378,18 +1732,18 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -2397,13 +1751,9 @@
       <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2413,18 +1763,18 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
+    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -2432,13 +1782,9 @@
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -2448,18 +1794,18 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -2467,13 +1813,9 @@
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2483,18 +1825,18 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -2502,13 +1844,9 @@
       <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2518,18 +1856,18 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -2537,13 +1875,9 @@
       <c r="F20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -2553,18 +1887,18 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -2572,13 +1906,9 @@
       <c r="F21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2588,18 +1918,18 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -2607,13 +1937,9 @@
       <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2623,18 +1949,18 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -2642,13 +1968,9 @@
       <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2658,18 +1980,18 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
+    <row r="24" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -2677,13 +1999,9 @@
       <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2693,18 +2011,18 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -2712,13 +2030,9 @@
       <c r="F25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2728,18 +2042,18 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -2747,13 +2061,9 @@
       <c r="F26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2763,18 +2073,18 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -2782,13 +2092,9 @@
       <c r="F27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2798,18 +2104,18 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -2817,13 +2123,9 @@
       <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2833,18 +2135,18 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -2852,13 +2154,9 @@
       <c r="F29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2868,18 +2166,18 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -2887,13 +2185,9 @@
       <c r="F30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2903,18 +2197,18 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -2922,13 +2216,9 @@
       <c r="F31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2938,18 +2228,18 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -2957,13 +2247,9 @@
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2973,18 +2259,18 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -2992,13 +2278,9 @@
       <c r="F33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -3008,18 +2290,18 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -3027,13 +2309,9 @@
       <c r="F34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -3043,18 +2321,18 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -3062,13 +2340,9 @@
       <c r="F35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3078,18 +2352,18 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -3097,13 +2371,9 @@
       <c r="F36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3113,18 +2383,18 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -3132,13 +2402,9 @@
       <c r="F37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3148,18 +2414,18 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -3167,13 +2433,9 @@
       <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -3183,18 +2445,18 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -3202,13 +2464,9 @@
       <c r="F39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -3218,18 +2476,18 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -3237,13 +2495,9 @@
       <c r="F40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -3253,18 +2507,18 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -3272,13 +2526,9 @@
       <c r="F41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3288,18 +2538,18 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -3307,13 +2557,9 @@
       <c r="F42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>200</v>
-      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3323,18 +2569,18 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -3342,13 +2588,9 @@
       <c r="F43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3358,18 +2600,18 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -3377,13 +2619,9 @@
       <c r="F44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -3393,18 +2631,18 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -3412,13 +2650,9 @@
       <c r="F45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -3428,18 +2662,18 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -3447,13 +2681,9 @@
       <c r="F46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -3463,18 +2693,18 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -3482,13 +2712,9 @@
       <c r="F47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -3498,32 +2724,28 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -3533,32 +2755,28 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -3568,32 +2786,28 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3603,32 +2817,28 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3638,32 +2848,28 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -3673,32 +2879,28 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -3708,32 +2910,28 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -3743,32 +2941,28 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -3778,32 +2972,28 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3813,32 +3003,28 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3848,32 +3034,28 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -3883,32 +3065,28 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>276</v>
+        <v>162</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -3918,32 +3096,28 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>280</v>
+        <v>164</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -3953,32 +3127,28 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>284</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -3988,32 +3158,28 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4023,32 +3189,28 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>296</v>
-      </c>
+      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -4058,32 +3220,28 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -4093,32 +3251,28 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>305</v>
-      </c>
+      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -4128,32 +3282,28 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>310</v>
-      </c>
+      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -4163,32 +3313,28 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -4198,32 +3344,28 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -4233,32 +3375,28 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>320</v>
+        <v>186</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
-        <v>323</v>
-      </c>
+      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -4268,32 +3406,28 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>325</v>
+        <v>189</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -4303,32 +3437,28 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -4338,32 +3468,28 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -4373,32 +3499,28 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>339</v>
+        <v>197</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>340</v>
-      </c>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -4408,32 +3530,28 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>343</v>
+        <v>199</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -4443,32 +3561,28 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>349</v>
-      </c>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="2" t="s">
-        <v>350</v>
-      </c>
+      <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -4478,32 +3592,28 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>351</v>
+        <v>203</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -4513,32 +3623,28 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>358</v>
-      </c>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -4548,32 +3654,28 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>360</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -4583,32 +3685,28 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>366</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4618,32 +3716,28 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>369</v>
+        <v>213</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>371</v>
+        <v>215</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>373</v>
-      </c>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>374</v>
-      </c>
+      <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -4653,32 +3747,28 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>375</v>
+        <v>217</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>376</v>
+        <v>218</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>371</v>
+        <v>215</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>377</v>
-      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2" t="s">
-        <v>378</v>
-      </c>
+      <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -4688,32 +3778,28 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="21">
+    <row r="82" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>381</v>
+        <v>221</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>382</v>
-      </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -4723,32 +3809,28 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="21">
+    <row r="83" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>384</v>
+        <v>222</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>385</v>
+        <v>223</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>381</v>
+        <v>221</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>386</v>
-      </c>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4758,32 +3840,28 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row r="84" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>388</v>
+        <v>224</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>390</v>
+        <v>226</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>391</v>
-      </c>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2" t="s">
-        <v>392</v>
-      </c>
+      <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4793,32 +3871,28 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="31.5">
+    <row r="85" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>393</v>
+        <v>268</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>394</v>
+        <v>227</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>390</v>
+        <v>226</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>395</v>
-      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2" t="s">
-        <v>396</v>
-      </c>
+      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4828,32 +3902,28 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="21">
+    <row r="86" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>397</v>
+        <v>228</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>398</v>
+        <v>229</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>399</v>
+        <v>230</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>400</v>
-      </c>
+      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4863,32 +3933,28 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="21">
+    <row r="87" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>402</v>
+        <v>231</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>403</v>
+        <v>232</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>399</v>
+        <v>230</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4898,32 +3964,28 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="21">
+    <row r="88" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>406</v>
+        <v>233</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>407</v>
+        <v>234</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>409</v>
-      </c>
+      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="2" t="s">
-        <v>410</v>
-      </c>
+      <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4933,32 +3995,28 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="21">
+    <row r="89" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>411</v>
+        <v>236</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>412</v>
+        <v>237</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>413</v>
-      </c>
+      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -4968,32 +4026,28 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row r="90" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>415</v>
+        <v>238</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>417</v>
+        <v>240</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>418</v>
-      </c>
+      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2" t="s">
-        <v>419</v>
-      </c>
+      <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -5003,32 +4057,28 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>420</v>
+        <v>241</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>421</v>
+        <v>242</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>417</v>
+        <v>240</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>422</v>
-      </c>
+      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="2" t="s">
-        <v>423</v>
-      </c>
+      <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -5038,32 +4088,28 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row r="92" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>424</v>
+        <v>243</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>425</v>
+        <v>244</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>426</v>
+        <v>245</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>427</v>
-      </c>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2" t="s">
-        <v>428</v>
-      </c>
+      <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -5073,32 +4119,28 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    <row r="93" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>429</v>
+        <v>246</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>430</v>
+        <v>247</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>426</v>
+        <v>245</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>431</v>
-      </c>
+      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="2" t="s">
-        <v>432</v>
-      </c>
+      <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -5108,32 +4150,28 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row r="94" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>433</v>
+        <v>248</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>434</v>
+        <v>249</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>435</v>
+        <v>250</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>436</v>
-      </c>
+      <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="2" t="s">
-        <v>437</v>
-      </c>
+      <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -5143,32 +4181,28 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row r="95" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>438</v>
+        <v>251</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>435</v>
+        <v>250</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>440</v>
-      </c>
+      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -5178,32 +4212,28 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="21">
+    <row r="96" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>443</v>
+        <v>254</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>445</v>
-      </c>
+      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="2" t="s">
-        <v>446</v>
-      </c>
+      <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -5213,32 +4243,28 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="21">
+    <row r="97" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>447</v>
+        <v>256</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>448</v>
+        <v>257</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>449</v>
-      </c>
+      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="2" t="s">
-        <v>450</v>
-      </c>
+      <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
@@ -5248,32 +4274,28 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="21">
+    <row r="98" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>451</v>
+        <v>258</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>452</v>
+        <v>259</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>453</v>
+        <v>260</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="2" t="s">
-        <v>455</v>
-      </c>
+      <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -5283,32 +4305,28 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="21">
+    <row r="99" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>456</v>
+        <v>261</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>457</v>
+        <v>262</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>453</v>
+        <v>260</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>458</v>
-      </c>
+      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="2" t="s">
-        <v>459</v>
-      </c>
+      <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -5318,32 +4336,28 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="21">
+    <row r="100" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>460</v>
+        <v>263</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>461</v>
+        <v>264</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>462</v>
+        <v>265</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>463</v>
-      </c>
+      <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="2" t="s">
-        <v>464</v>
-      </c>
+      <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -5353,32 +4367,28 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="21">
+    <row r="101" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>465</v>
+        <v>266</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>466</v>
+        <v>267</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>462</v>
+        <v>265</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="2" t="s">
-        <v>468</v>
-      </c>
+      <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -5389,6 +4399,7 @@
       <c r="Q101" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/GPT4_test/output_refined.xlsx
+++ b/test/GPT4_test/output_refined.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzd\Desktop\DocDoc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1892D9E-3B25-402F-AB0D-C826C5BA49C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="270">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +25,9 @@
     <t>Title_ch</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
@@ -703,6 +700,9 @@
     <t>Finance Report</t>
   </si>
   <si>
+    <t>Canon Company's Financial Analysis Report for the Fall of 2023</t>
+  </si>
+  <si>
     <t>佳能公司2023年秋季财务分析报告</t>
   </si>
   <si>
@@ -824,21 +824,18 @@
   </si>
   <si>
     <t>美国历史：从殖民到21世纪</t>
-  </si>
-  <si>
-    <t>Canon Company's Financial Analysis Report for the Fall of 2023</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -856,22 +853,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -901,38 +891,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -943,10 +939,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -984,71 +980,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1076,7 +1072,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1099,11 +1095,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1112,13 +1108,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1128,7 +1124,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1137,7 +1133,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1146,7 +1142,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1154,10 +1150,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1222,30 +1218,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="50.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1258,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1297,19 +1300,22 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1317,7 +1323,9 @@
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1328,19 +1336,20 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1348,7 +1357,9 @@
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1359,27 +1370,28 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1390,27 +1402,28 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1421,27 +1434,28 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1452,27 +1466,28 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1483,27 +1498,28 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1514,27 +1530,28 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1545,27 +1562,28 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1576,27 +1594,28 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1607,27 +1626,28 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1638,27 +1658,28 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1669,27 +1690,28 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1700,27 +1722,28 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1731,27 +1754,28 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1762,27 +1786,28 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1793,27 +1818,28 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1824,27 +1850,28 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1855,27 +1882,28 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1886,27 +1914,28 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1917,27 +1946,30 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1948,27 +1980,30 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1979,27 +2014,30 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2010,27 +2048,30 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2041,27 +2082,30 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2072,27 +2116,30 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2103,27 +2150,30 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2134,27 +2184,30 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2165,27 +2218,30 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2196,27 +2252,30 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2227,27 +2286,28 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2258,27 +2318,28 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2289,27 +2350,28 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2320,27 +2382,28 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2351,27 +2414,28 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2382,27 +2446,28 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2413,27 +2478,28 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2444,27 +2510,28 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2475,27 +2542,28 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2506,27 +2574,28 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2537,27 +2606,30 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2568,27 +2640,30 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2599,27 +2674,30 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2630,27 +2708,30 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2661,27 +2742,30 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2692,27 +2776,30 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2723,27 +2810,30 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="2" t="s">
         <v>134</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2754,27 +2844,30 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2785,27 +2878,30 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2816,27 +2912,28 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2847,27 +2944,28 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2878,27 +2976,28 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2909,27 +3008,28 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2940,27 +3040,28 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2971,27 +3072,28 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -3002,27 +3104,28 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3033,27 +3136,28 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3064,27 +3168,28 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3095,27 +3200,28 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R59" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="5" t="s">
         <v>165</v>
       </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3126,27 +3232,28 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3157,27 +3264,30 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
       <c r="E62" s="2" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3188,27 +3298,30 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -3219,27 +3332,30 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R63" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
       <c r="E64" s="2" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3250,27 +3366,30 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3281,27 +3400,30 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
       <c r="E66" s="2" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -3312,27 +3434,30 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3343,27 +3468,30 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
       <c r="E68" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3374,27 +3502,30 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3405,27 +3536,28 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="2" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -3436,27 +3568,28 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R70" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -3467,27 +3600,28 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R71" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="2" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -3498,27 +3632,28 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R72" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -3529,27 +3664,28 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R73" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="2" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3560,27 +3696,28 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R74" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -3591,27 +3728,28 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R75" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D76" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="2" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -3622,27 +3760,28 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -3653,27 +3792,28 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D78" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="2" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -3684,27 +3824,28 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R78" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -3715,27 +3856,28 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R79" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" s="5" t="s">
         <v>215</v>
       </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -3746,27 +3888,28 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R80" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -3777,27 +3920,30 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R81" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="21">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D82" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
       <c r="E82" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -3808,27 +3954,30 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R82" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="21">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -3839,27 +3988,30 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R83" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="C84" s="5" t="s">
         <v>226</v>
       </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
       <c r="E84" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -3870,27 +4022,30 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="24.75">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -3901,27 +4056,28 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R85" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="21">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>230</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -3932,27 +4088,28 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R86" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="21">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -3963,27 +4120,28 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R87" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="21">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>235</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D88" s="3"/>
       <c r="E88" s="2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -3994,27 +4152,28 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R88" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="21">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -4025,27 +4184,28 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R89" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D90" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="C90" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="3"/>
       <c r="E90" s="2" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -4056,27 +4216,28 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R90" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C91" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -4087,27 +4248,28 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R91" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D92" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="C92" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4118,27 +4280,28 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R92" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -4149,27 +4312,28 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R93" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D94" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="C94" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" s="3"/>
       <c r="E94" s="2" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -4180,27 +4344,28 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R94" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4211,27 +4376,28 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
-    </row>
-    <row r="96" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R95" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="21">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="2" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4242,27 +4408,28 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
-    </row>
-    <row r="97" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R96" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="21">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
@@ -4273,27 +4440,28 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
-    </row>
-    <row r="98" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R97" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="21">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>260</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D98" s="3"/>
       <c r="E98" s="2" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -4304,27 +4472,28 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
-    </row>
-    <row r="99" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R98" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="21">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -4335,27 +4504,28 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
-    </row>
-    <row r="100" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R99" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="21">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>265</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D100" s="3"/>
       <c r="E100" s="2" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -4366,27 +4536,28 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
-    </row>
-    <row r="101" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R100" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="21">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -4397,9 +4568,9 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>